--- a/main/bin/Debug/ArquivosDados/UnimedLoginProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/UnimedLoginProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F092AAEC-650A-4993-B370-25773DF93E21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3375F4CD-901B-41A0-A664-4A2A5D87F733}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -37,10 +37,16 @@
     <t>Resultado</t>
   </si>
   <si>
-    <t>Credenciais</t>
-  </si>
-  <si>
     <t>SUCESSO</t>
+  </si>
+  <si>
+    <t>malFormado</t>
+  </si>
+  <si>
+    <t>bemFormado</t>
+  </si>
+  <si>
+    <t>testeteste.com</t>
   </si>
 </sst>
 </file>
@@ -70,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +95,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -103,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -115,6 +127,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -398,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +443,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -437,14 +452,44 @@
         <v>123456</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1234567</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{275CC76D-529F-4E41-A24E-9F8903C66CD4}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D061E35E-7F67-4FEF-91CB-E182FCDF40AC}"/>
+    <hyperlink ref="B4" r:id="rId3" display="teste@teste.com" xr:uid="{335FD058-1D19-474F-BD86-7472F01EDE14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/main/bin/Debug/ArquivosDados/UnimedLoginProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/UnimedLoginProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3375F4CD-901B-41A0-A664-4A2A5D87F733}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CCF03F74-9A6B-4141-93FC-66D95553EC44}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/main/bin/Debug/ArquivosDados/UnimedLoginProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/UnimedLoginProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CCF03F74-9A6B-4141-93FC-66D95553EC44}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F092AAEC-650A-4993-B370-25773DF93E21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email</t>
   </si>
@@ -37,16 +37,10 @@
     <t>Resultado</t>
   </si>
   <si>
+    <t>Credenciais</t>
+  </si>
+  <si>
     <t>SUCESSO</t>
-  </si>
-  <si>
-    <t>malFormado</t>
-  </si>
-  <si>
-    <t>bemFormado</t>
-  </si>
-  <si>
-    <t>testeteste.com</t>
   </si>
 </sst>
 </file>
@@ -76,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,12 +89,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -115,7 +103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,9 +115,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -413,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +428,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -452,44 +437,14 @@
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1234567</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{275CC76D-529F-4E41-A24E-9F8903C66CD4}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D061E35E-7F67-4FEF-91CB-E182FCDF40AC}"/>
-    <hyperlink ref="B4" r:id="rId3" display="teste@teste.com" xr:uid="{335FD058-1D19-474F-BD86-7472F01EDE14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/main/bin/Debug/ArquivosDados/UnimedLoginProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/UnimedLoginProfissional.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F092AAEC-650A-4993-B370-25773DF93E21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{900BC518-377A-4316-B416-1839FF4E45F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>SUCESSO</t>
+  </si>
+  <si>
+    <t>malFormado</t>
+  </si>
+  <si>
+    <t>FALHA</t>
   </si>
 </sst>
 </file>
@@ -70,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +95,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -103,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -115,6 +127,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -398,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,11 +455,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1234567</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{275CC76D-529F-4E41-A24E-9F8903C66CD4}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{EC3E5172-58FB-4A21-A838-FF7FBF9283B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/main/bin/Debug/ArquivosDados/UnimedLoginProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/UnimedLoginProfissional.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{900BC518-377A-4316-B416-1839FF4E45F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CCF03F74-9A6B-4141-93FC-66D95553EC44}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -37,16 +37,16 @@
     <t>Resultado</t>
   </si>
   <si>
-    <t>Credenciais</t>
-  </si>
-  <si>
     <t>SUCESSO</t>
   </si>
   <si>
     <t>malFormado</t>
   </si>
   <si>
-    <t>FALHA</t>
+    <t>bemFormado</t>
+  </si>
+  <si>
+    <t>testeteste.com</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -452,12 +452,12 @@
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -466,15 +466,30 @@
         <v>1234567</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{275CC76D-529F-4E41-A24E-9F8903C66CD4}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{EC3E5172-58FB-4A21-A838-FF7FBF9283B2}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D061E35E-7F67-4FEF-91CB-E182FCDF40AC}"/>
+    <hyperlink ref="B4" r:id="rId3" display="teste@teste.com" xr:uid="{335FD058-1D19-474F-BD86-7472F01EDE14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>